--- a/EDU-colab-questions.xlsx
+++ b/EDU-colab-questions.xlsx
@@ -152,7 +152,7 @@
     <t>- is there any age limit to use edu-collab?</t>
   </si>
   <si>
-    <t>- from where can i get login credentials?</t>
+    <t>- from where can I get login credentials?</t>
   </si>
   <si>
     <t>- can we create user accounts on our own?</t>
@@ -182,28 +182,28 @@
     <t>- can I change the expertise level to lowest to any other category on my profile</t>
   </si>
   <si>
-    <t>- what is the purpose of Auto zoom recordings in user settings?</t>
-  </si>
-  <si>
-    <t>- what do different colors on schedule calender mean</t>
+    <t>- what is the purpose of Auto-zoom recordings in user settings?</t>
+  </si>
+  <si>
+    <t>- what do different colors on the schedule calendar mean</t>
   </si>
   <si>
     <t>User profile,</t>
   </si>
   <si>
-    <t>- can you explain what does different user status mean?</t>
+    <t>- can you explain what does different user statuses mean?</t>
   </si>
   <si>
     <t>User status</t>
   </si>
   <si>
-    <t>- can i change my user status from read to away?</t>
-  </si>
-  <si>
-    <t>- is it possible to update user name?</t>
-  </si>
-  <si>
-    <t>- what does these coins mean on the portal?</t>
+    <t>- can I change my user status from read to away?</t>
+  </si>
+  <si>
+    <t>- is it possible to update the user name?</t>
+  </si>
+  <si>
+    <t>- what do these coins mean on the portal?</t>
   </si>
   <si>
     <t>coins</t>
@@ -212,37 +212,37 @@
     <t>- how to earn more coins?</t>
   </si>
   <si>
-    <t>- by default how many coins a user get?</t>
-  </si>
-  <si>
-    <t>- How can I nevigate?</t>
+    <t>- by default how many coins does a user get?</t>
+  </si>
+  <si>
+    <t>- How can I navigate?</t>
   </si>
   <si>
     <t>navigation</t>
   </si>
   <si>
-    <t>- how can i ask a question?</t>
-  </si>
-  <si>
-    <t>- how can i utilize my coins with the questions?</t>
-  </si>
-  <si>
-    <t>- can i answer a questions asked by someone else?</t>
-  </si>
-  <si>
-    <t>- is it mandatory to use edu-collab app to create solution videos?</t>
-  </si>
-  <si>
-    <t>- what is moasic?</t>
+    <t>- how can I ask a question?</t>
+  </si>
+  <si>
+    <t>- how can I utilize my coins with the questions?</t>
+  </si>
+  <si>
+    <t>- can I answer a question asked by someone else?</t>
+  </si>
+  <si>
+    <t>- is it mandatory to use the edu-collab app to create solution videos?</t>
+  </si>
+  <si>
+    <t>- what is mosaic?</t>
   </si>
   <si>
     <t>mosaic</t>
   </si>
   <si>
-    <t>- what different type of projects are there on mosaic</t>
-  </si>
-  <si>
-    <t>- can i join a ongoing project</t>
+    <t>- what different types of projects are there on mosaic</t>
+  </si>
+  <si>
+    <t>- can I join an ongoing project</t>
   </si>
   <si>
     <t>- how many total projects are available on mosiac</t>
@@ -254,46 +254,46 @@
     <t>- to join a project do I need to have a domain background in it</t>
   </si>
   <si>
-    <t>- how do i see details about a project on mosaic</t>
-  </si>
-  <si>
-    <t>- can we start our own project or do we need to select from the given in mosiac</t>
+    <t>- how do I see details about a project on mosaic</t>
+  </si>
+  <si>
+    <t>- can we start my project or do we need to select from the given in mosiac</t>
   </si>
   <si>
     <t>- how can I add my team details for a project on mosaic</t>
   </si>
   <si>
-    <t>- how to use my contant section on this platform?</t>
-  </si>
-  <si>
-    <t>- how can i reach out to the project mentors</t>
-  </si>
-  <si>
-    <t>- what is the purpose of my content ?</t>
+    <t>- how to use my content section on this platform?</t>
+  </si>
+  <si>
+    <t>- how can I reach out to the project mentors</t>
+  </si>
+  <si>
+    <t>- what is the purpose of my content?</t>
   </si>
   <si>
     <t>My content</t>
   </si>
   <si>
-    <t>- how can i add courses under my courses section ?</t>
-  </si>
-  <si>
-    <t>- what's the limit to subscribe under other courses section ?</t>
-  </si>
-  <si>
-    <t>- if i pickup a course under other courses will it  benefit in my assessment at sabudh?</t>
+    <t>- how can I add courses under my courses section?</t>
+  </si>
+  <si>
+    <t>- what's the limit to subscribe under the other courses section?</t>
+  </si>
+  <si>
+    <t>- if I pick up a course under other courses will it benefit my assessment at sabudh?</t>
   </si>
   <si>
     <t>- what different categories of courses are there?</t>
   </si>
   <si>
-    <t>- if i miss to submitting on deadline. will it affect my assessment?</t>
-  </si>
-  <si>
-    <t>- what will happen if i submit twice ?</t>
-  </si>
-  <si>
-    <t>- what if i'm not able to submit my assignment?</t>
+    <t>- if I miss submitting on deadline. will it affect my assessment?</t>
+  </si>
+  <si>
+    <t>- what will happen if I submit twice?</t>
+  </si>
+  <si>
+    <t>- what if I'm not able to submit my assignment?</t>
   </si>
   <si>
     <t>- how the overall grading is done?</t>
@@ -302,29 +302,29 @@
     <t>- will my grades appear on my certificates from sabudh?</t>
   </si>
   <si>
-    <t>- are solution provide for every assignment?</t>
-  </si>
-  <si>
-    <t>- is there any certificate provided by sabudh ?</t>
-  </si>
-  <si>
-    <t>- is there any applications for edu-collab?</t>
-  </si>
-  <si>
-    <t>- how i logout from edu-collab?</t>
+    <t>- are the solution provided for every assignment?</t>
+  </si>
+  <si>
+    <t>- is there any certificate provided by sabudh?</t>
+  </si>
+  <si>
+    <t>- are there any applications for edu-collab?</t>
+  </si>
+  <si>
+    <t>- how do I log out from edu-collab?</t>
   </si>
   <si>
     <t>login</t>
   </si>
   <si>
-    <t>- when do my login credentials expire once i leave sabudh ?</t>
+    <t>- when do my login credentials expire once I leave sabudh?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -347,14 +347,27 @@
     </font>
     <font>
       <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -363,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -377,7 +390,19 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,19 +805,19 @@
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -803,7 +828,7 @@
       <c r="A3" s="2">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -814,7 +839,7 @@
       <c r="A4" s="2">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -825,7 +850,7 @@
       <c r="A5" s="2">
         <v>4.0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -836,7 +861,7 @@
       <c r="A6" s="2">
         <v>5.0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -847,7 +872,7 @@
       <c r="A7" s="2">
         <v>6.0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -858,7 +883,7 @@
       <c r="A8" s="2">
         <v>7.0</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -869,7 +894,7 @@
       <c r="A9" s="2">
         <v>8.0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -880,7 +905,7 @@
       <c r="A10" s="2">
         <v>9.0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -891,7 +916,7 @@
       <c r="A11" s="2">
         <v>10.0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -902,7 +927,7 @@
       <c r="A12" s="2">
         <v>11.0</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -913,7 +938,7 @@
       <c r="A13" s="2">
         <v>12.0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -924,7 +949,7 @@
       <c r="A14" s="2">
         <v>13.0</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -935,7 +960,7 @@
       <c r="A15" s="2">
         <v>14.0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -946,7 +971,7 @@
       <c r="A16" s="2">
         <v>15.0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -957,7 +982,7 @@
       <c r="A17" s="2">
         <v>16.0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -968,7 +993,7 @@
       <c r="A18" s="2">
         <v>17.0</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -979,7 +1004,7 @@
       <c r="A19" s="2">
         <v>18.0</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -990,7 +1015,7 @@
       <c r="A20" s="2">
         <v>19.0</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1001,7 +1026,7 @@
       <c r="A21" s="2">
         <v>20.0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1012,7 +1037,7 @@
       <c r="A22" s="2">
         <v>21.0</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1023,7 +1048,7 @@
       <c r="A23" s="2">
         <v>22.0</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1034,7 +1059,7 @@
       <c r="A24" s="2">
         <v>23.0</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1045,7 +1070,7 @@
       <c r="A25" s="2">
         <v>24.0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1056,7 +1081,7 @@
       <c r="A26" s="2">
         <v>25.0</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1067,7 +1092,7 @@
       <c r="A27" s="2">
         <v>26.0</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1078,7 +1103,7 @@
       <c r="A28" s="2">
         <v>27.0</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1089,7 +1114,7 @@
       <c r="A29" s="2">
         <v>28.0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1100,7 +1125,7 @@
       <c r="A30" s="2">
         <v>29.0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1111,7 +1136,7 @@
       <c r="A31" s="2">
         <v>30.0</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1122,7 +1147,7 @@
       <c r="A32" s="2">
         <v>31.0</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1133,7 +1158,7 @@
       <c r="A33" s="2">
         <v>32.0</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1144,7 +1169,7 @@
       <c r="A34" s="2">
         <v>33.0</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1155,7 +1180,7 @@
       <c r="A35" s="2">
         <v>34.0</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1166,7 +1191,7 @@
       <c r="A36" s="2">
         <v>35.0</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1177,7 +1202,7 @@
       <c r="A37" s="2">
         <v>36.0</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1188,7 +1213,7 @@
       <c r="A38" s="2">
         <v>37.0</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1199,7 +1224,7 @@
       <c r="A39" s="2">
         <v>38.0</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1210,7 +1235,7 @@
       <c r="A40" s="2">
         <v>39.0</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1221,7 +1246,7 @@
       <c r="A41" s="2">
         <v>40.0</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1232,7 +1257,7 @@
       <c r="A42" s="2">
         <v>41.0</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1243,7 +1268,7 @@
       <c r="A43" s="2">
         <v>42.0</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1254,7 +1279,7 @@
       <c r="A44" s="2">
         <v>43.0</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1265,7 +1290,7 @@
       <c r="A45" s="2">
         <v>44.0</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1276,7 +1301,7 @@
       <c r="A46" s="2">
         <v>45.0</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1287,7 +1312,7 @@
       <c r="A47" s="2">
         <v>46.0</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1298,7 +1323,7 @@
       <c r="A48" s="2">
         <v>47.0</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1309,7 +1334,7 @@
       <c r="A49" s="2">
         <v>48.0</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1320,7 +1345,7 @@
       <c r="A50" s="2">
         <v>49.0</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1331,12 +1356,2865 @@
       <c r="A51" s="2">
         <v>50.0</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="8"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="8"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="8"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="8"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="8"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="8"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="8"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="8"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="8"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="8"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="8"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="8"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="8"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="8"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="8"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="8"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="8"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="8"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="8"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="8"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="8"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="8"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="8"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="8"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="8"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="8"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="8"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="8"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="8"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="8"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="8"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="8"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="8"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="8"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="8"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="8"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="8"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="8"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="8"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="8"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="8"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="8"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="8"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="8"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="8"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="8"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="8"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="8"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="8"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="8"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="8"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="8"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="8"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="8"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="8"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="8"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="8"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="8"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="8"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="8"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="8"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="8"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="8"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="8"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="8"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="8"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="8"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="8"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="8"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="8"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="8"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="8"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="8"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="8"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="8"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="8"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="8"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="8"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="8"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="8"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="8"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="8"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="8"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="8"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="8"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="8"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="8"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="8"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="8"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="8"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="8"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="8"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="8"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="8"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="8"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="8"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="8"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="8"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="8"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="8"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="8"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="8"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="8"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="8"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="8"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="8"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="8"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="8"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="8"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="8"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="8"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="8"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="8"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="8"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="8"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="8"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="8"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="8"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="8"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="8"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="8"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="8"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="8"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="8"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="8"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="8"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="8"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="8"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="8"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="8"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="8"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="8"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="8"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="8"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="8"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="8"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="8"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="8"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="8"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="8"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="8"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="8"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="8"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="8"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="8"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="8"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="8"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="8"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="8"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="8"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="8"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="8"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="8"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="8"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="8"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="8"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="8"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="8"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="8"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="8"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="8"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="8"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="8"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="8"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="8"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="8"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="8"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="8"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="8"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="8"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="8"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="8"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="8"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="8"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="8"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="8"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="8"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="8"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="8"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="8"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="8"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="8"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="8"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="8"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="8"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="8"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="8"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="8"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="8"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="8"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="8"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="8"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="8"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="8"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="8"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="8"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="8"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="8"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="8"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="8"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="8"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="8"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="8"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="8"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="8"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="8"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="8"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="8"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="8"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="8"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="8"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="8"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="8"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="8"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="8"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="8"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="8"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="8"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="8"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="8"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="8"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="8"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="8"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="8"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="8"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="8"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="8"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="8"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="8"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="8"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="8"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="8"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="8"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="8"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="8"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="8"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="8"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="8"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="8"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="8"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="8"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="8"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="8"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="8"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="8"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="8"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="8"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="8"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="8"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="8"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="8"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="8"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="8"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="8"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="8"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="8"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="8"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="8"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="8"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="8"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="8"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="8"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="8"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="8"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="8"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="8"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="8"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="8"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="8"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="8"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="8"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="8"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="8"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="8"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="8"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="8"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="8"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="8"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="8"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="8"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="8"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="8"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="8"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="8"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="8"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="8"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="8"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="8"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="8"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="8"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="8"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="8"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="8"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="8"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="8"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="8"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="8"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="8"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="8"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="8"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="8"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="8"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="8"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="8"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="8"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="8"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="8"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="8"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="8"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="8"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="8"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="8"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="8"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="8"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="8"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="8"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="8"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="8"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="8"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="8"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="8"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="8"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="8"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="8"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="8"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="8"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="8"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="8"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="8"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="8"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="8"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="8"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="8"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="8"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="8"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="8"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="8"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="8"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="8"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="8"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="8"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="8"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="8"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="8"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="8"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="8"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="8"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="8"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="8"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="8"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="8"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="8"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="8"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="8"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="8"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="8"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="8"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="8"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="8"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="8"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="8"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="8"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="8"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="8"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="8"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="8"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="8"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="8"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="8"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="8"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="8"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="8"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="8"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="8"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="8"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="8"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="8"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="8"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="8"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="8"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="8"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="8"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="8"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="8"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="8"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="8"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="8"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="8"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="8"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="8"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="8"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="8"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="8"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="8"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="8"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="8"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="8"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="8"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="8"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="8"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="8"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="8"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="8"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="8"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="8"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="8"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="8"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="8"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="8"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="8"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="8"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="8"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="8"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="8"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="8"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="8"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="8"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="8"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="8"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="8"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="8"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="8"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="8"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="8"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="8"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="8"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="8"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="8"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="8"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="8"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="8"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="8"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="8"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="8"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="8"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="8"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="8"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="8"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="8"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="8"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="8"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="8"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="8"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="8"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="8"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="8"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="8"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="8"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="8"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="8"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="8"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="8"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="8"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="8"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="8"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="8"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="8"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="8"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="8"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="8"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="8"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="8"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="8"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="8"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="8"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="8"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="8"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="8"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="8"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="8"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="8"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="8"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="8"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="8"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="8"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="8"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="8"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="8"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="8"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="8"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="8"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="8"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="8"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="8"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="8"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="8"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="8"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="8"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="8"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="8"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="8"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="8"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="8"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="8"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="8"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="8"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="8"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="8"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="8"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="8"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="8"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="8"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="8"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="8"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="8"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="8"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="8"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="8"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="8"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="8"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="8"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="8"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="8"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="8"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="8"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="8"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="8"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="8"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="8"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="8"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="8"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="8"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="8"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="8"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="8"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="8"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="8"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="8"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="8"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="8"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="8"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="8"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="8"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="8"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="8"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="8"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="8"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="8"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="8"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="8"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="8"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="8"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="8"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="8"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="8"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="8"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="8"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="8"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="8"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="8"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="8"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="8"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="8"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="8"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="8"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="8"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="8"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="8"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="8"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="8"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="8"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="8"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="8"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="8"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="8"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="8"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="8"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="8"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="8"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="8"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="8"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="8"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="8"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="8"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="8"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="8"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="8"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="8"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="8"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="8"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="8"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="8"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="8"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="8"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="8"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="8"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="8"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="8"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="8"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="8"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="8"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="8"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="8"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="8"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="8"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="8"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="8"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="8"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="8"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="8"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="8"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="8"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="8"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="8"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="8"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="8"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="8"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="8"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="8"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="8"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="8"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="8"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="8"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="8"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="8"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="8"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="8"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="8"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="8"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="8"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="8"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="8"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="8"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="8"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="8"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="8"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="8"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="8"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="8"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="8"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="8"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="8"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="8"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="8"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="8"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="8"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="8"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="8"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="8"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="8"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="8"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="8"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="8"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="8"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="8"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="8"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="8"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="8"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="8"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="8"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="8"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="8"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="8"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="8"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="8"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="8"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="8"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="8"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="8"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="8"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="8"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="8"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="8"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="8"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="8"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="8"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="8"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="8"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="8"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="8"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="8"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="8"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="8"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="8"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="8"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="8"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="8"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="8"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="8"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="8"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="8"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="8"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="8"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="8"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="8"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="8"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="8"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="8"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="8"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="8"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="8"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="8"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="8"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="8"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="8"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="8"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="8"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="8"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="8"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="8"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="8"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="8"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="8"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="8"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="8"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="8"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="8"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="8"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="8"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="8"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="8"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="8"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="8"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="8"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="8"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="8"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="8"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="8"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="8"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="8"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="8"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="8"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="8"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="8"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="8"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="8"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="8"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="8"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="8"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="8"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="8"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="8"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="8"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="8"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="8"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="8"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="8"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="8"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="8"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="8"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="8"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="8"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="8"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="8"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="8"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="8"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="8"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="8"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="8"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="8"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="8"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="8"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="8"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="8"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="8"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="8"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="8"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="8"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="8"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="8"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="8"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="8"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="8"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="8"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="8"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="8"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="8"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="8"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="8"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="8"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="8"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="8"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="8"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="8"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="8"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="8"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="8"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="8"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="8"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="8"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="8"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="8"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="8"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="8"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="8"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="8"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="8"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="8"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="8"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="8"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="8"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="8"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="8"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="8"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="8"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="8"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="8"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="8"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="8"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="8"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="8"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="8"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="8"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="8"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="8"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="8"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="8"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="8"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="8"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="8"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="8"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="8"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="8"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="8"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="8"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="8"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="8"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="8"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="8"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="8"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="8"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="8"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="8"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="8"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="8"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="8"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="8"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="8"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="8"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="8"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="8"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="8"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="8"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="8"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="8"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="8"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="8"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="8"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="8"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="8"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="8"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="8"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="8"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="8"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="8"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="8"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="8"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="8"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="8"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="8"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="8"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="8"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="8"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="8"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="8"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="8"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="8"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="8"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="8"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="8"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="8"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="8"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="8"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="8"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="8"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="8"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="8"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="8"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="8"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="8"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="8"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="8"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="8"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="8"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="8"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="8"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="8"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="8"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="8"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="8"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="8"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="8"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="8"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="8"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="8"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="8"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="8"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="8"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="8"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="8"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="8"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="8"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="8"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="8"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="8"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="8"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="8"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="8"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="8"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="8"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="8"/>
+    </row>
+    <row r="999">
+      <c r="B999" s="8"/>
+    </row>
+    <row r="1000">
+      <c r="B1000" s="8"/>
+    </row>
+    <row r="1001">
+      <c r="B1001" s="8"/>
+    </row>
+    <row r="1002">
+      <c r="B1002" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
